--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220826.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 10:08:22</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:16:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221626.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:16:36</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:45:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:45:53</t>
+    <t>Informação extraída do SIGBM: 26/12/2022 - 11:55:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225526.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 26/12/2022 - 11:55:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:11:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:11:40</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:28:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:28:54</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:37:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:37:39</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:47:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:47:10</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:55:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:55:21</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:11:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:11:20</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:31:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:31:32</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:43:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:43:53</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:52:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:52:46</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:01:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:01:34</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:19:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:19:57</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:30:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:30:04</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:39:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:39:20</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:48:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:48:52</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:56:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:56:51</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:16:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223427.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:16:08</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:34:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223427.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:34:13</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:45:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225427.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:45:08</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:54:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225427.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:54:03</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:02:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:02:34</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:20:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:20:25</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:29:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:29:39</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:37:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:37:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:46:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:46:58</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:56:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:56:02</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:12:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:12:25</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:32:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:32:36</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:43:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:43:50</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:52:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:52:39</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:00:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:00:58</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:19:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:19:53</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:29:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:29:36</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:38:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:38:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:47:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:47:50</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:57:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:57:23</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:13:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:13:04</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:30:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:30:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:40:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:40:00</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:48:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:48:39</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:57:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:57:42</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:11:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:11:16</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:23:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:23:25</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:32:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:32:09</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:41:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:41:00</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:50:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:50:25</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:58:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:58:46</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 09:27:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 09:27:10</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 09:53:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 09:53:49</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:12:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:12:43</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:30:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:30:52</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:39:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:39:30</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:48:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:48:25</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 10:57:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 10:57:47</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:12:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:12:18</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:26:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:26:34</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:35:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:35:00</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:43:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:43:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 11:53:04</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4706,7 +4706,7 @@
     <t>-59°15'24.414"</t>
   </si>
   <si>
-    <t>8.171.103,42</t>
+    <t>8.214.937,95</t>
   </si>
   <si>
     <t>Barragem Eustáquio</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 11:53:04</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:01:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:01:59</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:21:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:21:02</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:31:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:31:46</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:41:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:41:26</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:49:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:49:39</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 12:59:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 12:59:01</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:19:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:19:32</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:41:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:41:42</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 01:52:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 01:52:29</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:01:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:01:04</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:17:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:17:29</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:29:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:29:10</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:38:42</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -24780,7 +24780,7 @@
         <v>46</v>
       </c>
       <c r="Q206" s="0" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="R206" s="0" t="s">
         <v>146</v>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:38:42</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:47:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:47:46</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 02:56:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 02:56:14</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:12:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:12:53</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:31:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:31:48</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:42:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:42:56</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 03:52:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 03:52:14</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:00:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:00:44</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:15:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222427.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:15:37</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:24:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222427.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:24:37</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:33:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:33:57</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:42:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225127.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:42:08</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 04:51:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225127.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 04:51:17</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:00:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:00:18</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:18:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:18:11</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:30:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:30:03</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:39:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:39:20</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:48:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:48:19</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 05:57:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 05:57:00</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:10:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222327.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:10:55</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:23:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222327.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:23:54</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:32:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:32:49</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:42:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224227.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:42:07</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:50:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:50:38</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 06:59:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 06:59:24</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:15:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:15:48</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:29:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222927.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:29:48</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:38:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223827.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:38:30</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:47:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:47:48</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 07:56:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221027.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 07:56:45</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:10:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221027.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222727.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:10:57</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:27:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222727.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223627.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:27:20</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:36:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223627.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224527.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:36:43</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:45:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-27.xlsx
+++ b/sigbm_download_2022-12-27.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224527.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225427.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 27/12/2022 - 08:45:18</t>
+    <t>Informação extraída do SIGBM: 27/12/2022 - 08:54:46</t>
   </si>
   <si>
     <t>ID Barragem</t>
